--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.021821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.021821.xlsx_with_dialog_acts.xlsx
@@ -1431,12 +1431,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1751,12 +1751,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3559,12 +3559,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4159,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4199,12 +4199,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4483,12 +4483,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5121,12 +5121,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5401,12 +5401,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6841,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6965,12 +6965,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7005,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7089,12 +7089,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7809,12 +7809,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8129,12 +8129,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8369,12 +8369,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9233,12 +9233,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
